--- a/temp.xlsx
+++ b/temp.xlsx
@@ -371,410 +371,790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1">
-        <v>6.0</v>
+        <v>1.0942580733622327</v>
       </c>
       <c r="B1">
-        <v>4.0</v>
+        <v>2.359870836249835</v>
       </c>
       <c r="C1">
-        <v>0.0</v>
+        <v>-3.0313616453258785</v>
       </c>
       <c r="D1">
-        <v>0.6</v>
+        <v>0.08919327545542055</v>
       </c>
       <c r="E1">
-        <v>1.0</v>
+        <v>0.38487729270069915</v>
       </c>
       <c r="F1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>-0.283546720949563</v>
+      </c>
+      <c r="G1">
+        <v>4.356364181890451</v>
+      </c>
+      <c r="H1">
+        <v>-6.0246186077712105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>7.0</v>
+        <v>1.8921154985817998</v>
       </c>
       <c r="B2">
-        <v>3.0</v>
+        <v>1.4614179920238146</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>-1.269614957585639</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>-3.256488696552397</v>
       </c>
       <c r="E2">
-        <v>1.0</v>
+        <v>-2.4255247773734117</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-2.7714209802634033</v>
+      </c>
+      <c r="G2">
+        <v>3.8962024380747726</v>
+      </c>
+      <c r="H2">
+        <v>-0.282392933657235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>7.0</v>
+        <v>6.492703804337757</v>
       </c>
       <c r="B3">
-        <v>3.0</v>
+        <v>7.803184581502294</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>-2.364995648751745</v>
       </c>
       <c r="D3">
-        <v>0.6</v>
+        <v>-1.8036061763263402</v>
       </c>
       <c r="E3">
-        <v>0.8571428571428571</v>
+        <v>0.8129941776956771</v>
       </c>
       <c r="F3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-3.9149317409339845</v>
+      </c>
+      <c r="G3">
+        <v>2.3658800952383734</v>
+      </c>
+      <c r="H3">
+        <v>-0.917959524031435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>7.0</v>
+        <v>2.3246840709974936</v>
       </c>
       <c r="B4">
-        <v>3.0</v>
+        <v>-0.4274174121574381</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>1.7659423911144028</v>
       </c>
       <c r="D4">
-        <v>0.7</v>
+        <v>3.105234323022155</v>
       </c>
       <c r="E4">
-        <v>1.0</v>
+        <v>-4.348286076017313</v>
       </c>
       <c r="F4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-3.149707012737524</v>
+      </c>
+      <c r="G4">
+        <v>2.9888324352519846</v>
+      </c>
+      <c r="H4">
+        <v>0.7990783740496624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>6.0</v>
+        <v>-2.986381079602257</v>
       </c>
       <c r="B5">
-        <v>4.0</v>
+        <v>-1.631075459666243</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>-5.83635967321584</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>1.1959858972933235</v>
       </c>
       <c r="E5">
-        <v>1.0</v>
+        <v>-1.0386984091549052</v>
       </c>
       <c r="F5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>2.5487486569448095</v>
+      </c>
+      <c r="G5">
+        <v>6.050724700765768</v>
+      </c>
+      <c r="H5">
+        <v>5.831956388586974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>6.0</v>
+        <v>-1.1065787406888825</v>
       </c>
       <c r="B6">
-        <v>4.0</v>
+        <v>3.182803872146868</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>2.7702586606167117</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>4.672366615715964</v>
       </c>
       <c r="E6">
-        <v>1.0</v>
+        <v>1.1455965433405053</v>
       </c>
       <c r="F6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-4.415664300592136</v>
+      </c>
+      <c r="G6">
+        <v>0.5775863430870443</v>
+      </c>
+      <c r="H6">
+        <v>-0.3785263628021191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>7.0</v>
+        <v>3.1355278385940197</v>
       </c>
       <c r="B7">
-        <v>3.0</v>
+        <v>-3.645272171659797</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>-2.7489345895753408</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>7.905758057528702</v>
       </c>
       <c r="E7">
-        <v>0.8571428571428571</v>
+        <v>-0.9648874008876618</v>
       </c>
       <c r="F7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-2.527097079607577</v>
+      </c>
+      <c r="G7">
+        <v>6.405785092542173</v>
+      </c>
+      <c r="H7">
+        <v>1.2777319927042896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>7.0</v>
+        <v>1.599309015366679</v>
       </c>
       <c r="B8">
-        <v>3.0</v>
+        <v>4.495061899389894</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>-3.0357595743693135</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>-1.8294416398234308</v>
       </c>
       <c r="E8">
-        <v>0.8571428571428571</v>
+        <v>-4.121030344255855</v>
       </c>
       <c r="F8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.9517662377153364</v>
+      </c>
+      <c r="G8">
+        <v>0.1961593891691032</v>
+      </c>
+      <c r="H8">
+        <v>5.90773978040033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>7.0</v>
+        <v>5.706181672261761</v>
       </c>
       <c r="B9">
-        <v>3.0</v>
+        <v>3.3307415876283004</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>1.712029344520721</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>3.490306262412056</v>
       </c>
       <c r="E9">
-        <v>0.7142857142857143</v>
+        <v>-2.3526112152462986</v>
       </c>
       <c r="F9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>2.9720613753245937</v>
+      </c>
+      <c r="G9">
+        <v>-3.0920403758524033</v>
+      </c>
+      <c r="H9">
+        <v>-0.561097540359444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>3.0</v>
+        <v>0.25178290017504024</v>
       </c>
       <c r="B10">
-        <v>7.0</v>
+        <v>-0.42420183148348256</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>-0.4327961009430815</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>-1.4367443377901368</v>
       </c>
       <c r="E10">
-        <v>1.0</v>
+        <v>0.2792425478755569</v>
       </c>
       <c r="F10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.1758934883943959</v>
+      </c>
+      <c r="G10">
+        <v>2.283041377981089</v>
+      </c>
+      <c r="H10">
+        <v>-5.70713212442497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>8.0</v>
+        <v>2.2761330875142916</v>
       </c>
       <c r="B11">
-        <v>2.0</v>
+        <v>5.4438807057473815</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>8.960002787296125</v>
       </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>2.1605475999882326</v>
       </c>
       <c r="E11">
-        <v>1.0</v>
+        <v>-1.5909453072973399</v>
       </c>
       <c r="F11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.7520260233101457</v>
+      </c>
+      <c r="G11">
+        <v>-6.2892101209360245</v>
+      </c>
+      <c r="H11">
+        <v>-2.111085045203491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
-        <v>9.0</v>
+        <v>3.1311857574454374</v>
       </c>
       <c r="B12">
-        <v>1.0</v>
+        <v>4.988934719240202</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
+        <v>-1.8725518579177256</v>
       </c>
       <c r="D12">
-        <v>0.9</v>
+        <v>0.6731372826406608</v>
       </c>
       <c r="E12">
-        <v>1.0</v>
+        <v>-4.003028882092023</v>
       </c>
       <c r="F12">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-7.839004445288468</v>
+      </c>
+      <c r="G12">
+        <v>-0.5127707645479761</v>
+      </c>
+      <c r="H12">
+        <v>-4.118463808914374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>7.0</v>
+        <v>-1.5094960906315822</v>
       </c>
       <c r="B13">
-        <v>2.0</v>
+        <v>-0.05120627838029623</v>
       </c>
       <c r="C13">
-        <v>1.0</v>
+        <v>4.77467159745655</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>5.101246196483931</v>
       </c>
       <c r="E13">
-        <v>0.7142857142857143</v>
+        <v>-3.8845921433642285</v>
       </c>
       <c r="F13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-2.754960237677105</v>
+      </c>
+      <c r="G13">
+        <v>-0.21881629272778455</v>
+      </c>
+      <c r="H13">
+        <v>-2.272319746138014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>5.0</v>
+        <v>2.8073540699827024</v>
       </c>
       <c r="B14">
-        <v>5.0</v>
+        <v>-0.6194397578619597</v>
       </c>
       <c r="C14">
-        <v>0.0</v>
+        <v>1.2419557764808904</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>3.6725886245365973</v>
       </c>
       <c r="E14">
-        <v>1.0</v>
+        <v>2.347307976160579</v>
       </c>
       <c r="F14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-3.278250139104818</v>
+      </c>
+      <c r="G14">
+        <v>0.4001399457829628</v>
+      </c>
+      <c r="H14">
+        <v>-3.4310281706023824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>4.0</v>
+        <v>-0.4568176567513751</v>
       </c>
       <c r="B15">
-        <v>6.0</v>
+        <v>6.0035495231217455</v>
       </c>
       <c r="C15">
-        <v>0.0</v>
+        <v>-1.7336091500896622</v>
       </c>
       <c r="D15">
-        <v>0.3</v>
+        <v>2.150865984031106</v>
       </c>
       <c r="E15">
-        <v>0.75</v>
+        <v>-5.693239097328891</v>
       </c>
       <c r="F15">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-2.3736014954289857</v>
+      </c>
+      <c r="G15">
+        <v>3.0388397769897173</v>
+      </c>
+      <c r="H15">
+        <v>1.5336847220442533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>6.0</v>
+        <v>-1.1476604860364472</v>
       </c>
       <c r="B16">
-        <v>4.0</v>
+        <v>6.215295301746691</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>5.311950555393647</v>
       </c>
       <c r="D16">
-        <v>0.4</v>
+        <v>1.2265133846186358</v>
       </c>
       <c r="E16">
-        <v>0.6666666666666666</v>
+        <v>-2.0558327348704046</v>
       </c>
       <c r="F16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.852333132201559</v>
+      </c>
+      <c r="G16">
+        <v>1.4276813653033187</v>
+      </c>
+      <c r="H16">
+        <v>-2.0697723953174023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>4.0</v>
+        <v>-3.604120025006841</v>
       </c>
       <c r="B17">
-        <v>6.0</v>
+        <v>0.24390082362482524</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0.30447145643428486</v>
       </c>
       <c r="D17">
-        <v>0.4</v>
+        <v>-2.301406088493655</v>
       </c>
       <c r="E17">
-        <v>1.0</v>
+        <v>0.2986408267937142</v>
       </c>
       <c r="F17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>-3.1984845636410046</v>
+      </c>
+      <c r="G17">
+        <v>-6.603364963880352</v>
+      </c>
+      <c r="H17">
+        <v>-5.7303630770304705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>5.0</v>
+        <v>-0.6980665732727176</v>
       </c>
       <c r="B18">
-        <v>5.0</v>
+        <v>-2.5609808615186695</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>-2.4762105650482455</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0.1602710099223354</v>
       </c>
       <c r="E18">
-        <v>1.0</v>
+        <v>-0.13574922028713288</v>
       </c>
       <c r="F18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>-5.069576034341299</v>
+      </c>
+      <c r="G18">
+        <v>0.6224169205548791</v>
+      </c>
+      <c r="H18">
+        <v>0.04215678386725075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
-        <v>6.0</v>
+        <v>0.8427261250959777</v>
       </c>
       <c r="B19">
-        <v>4.0</v>
+        <v>0.8402091157018596</v>
       </c>
       <c r="C19">
-        <v>0.0</v>
+        <v>-3.7928764826723977</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>-0.8281849499622417</v>
       </c>
       <c r="E19">
-        <v>0.8333333333333334</v>
+        <v>0.38614215680730446</v>
       </c>
       <c r="F19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>4.020851779438914</v>
+      </c>
+      <c r="G19">
+        <v>1.4124362361084732</v>
+      </c>
+      <c r="H19">
+        <v>0.45962853823412003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>5.0</v>
+        <v>5.662662609380828</v>
       </c>
       <c r="B20">
-        <v>5.0</v>
+        <v>2.6541097064623593</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
+        <v>4.966649731283775</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>-0.3887211700683235</v>
       </c>
       <c r="E20">
-        <v>1.0</v>
+        <v>-2.307648882657372</v>
       </c>
       <c r="F20">
-        <v>1.0</v>
+        <v>-0.5472240684783576</v>
+      </c>
+      <c r="G20">
+        <v>3.3851299263003067</v>
+      </c>
+      <c r="H20">
+        <v>2.449556070825146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>7.022516966834079</v>
+      </c>
+      <c r="B21">
+        <v>-3.4913662880330723</v>
+      </c>
+      <c r="C21">
+        <v>-0.3939228232163451</v>
+      </c>
+      <c r="D21">
+        <v>-4.291112230229837</v>
+      </c>
+      <c r="E21">
+        <v>4.1957476596341525</v>
+      </c>
+      <c r="F21">
+        <v>-4.365609779553338</v>
+      </c>
+      <c r="G21">
+        <v>-0.5529230529366393</v>
+      </c>
+      <c r="H21">
+        <v>4.51485302563938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>3.5845756892901655</v>
+      </c>
+      <c r="B22">
+        <v>2.726011698949276</v>
+      </c>
+      <c r="C22">
+        <v>0.9892496628919767</v>
+      </c>
+      <c r="D22">
+        <v>0.04813236363011285</v>
+      </c>
+      <c r="E22">
+        <v>-4.762401426849124</v>
+      </c>
+      <c r="F22">
+        <v>-1.9197569701961383</v>
+      </c>
+      <c r="G22">
+        <v>2.7224928061135687</v>
+      </c>
+      <c r="H22">
+        <v>3.680075000657675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>-1.1010595472586227</v>
+      </c>
+      <c r="B23">
+        <v>2.711994707314292</v>
+      </c>
+      <c r="C23">
+        <v>1.8504570040381623</v>
+      </c>
+      <c r="D23">
+        <v>3.743125512832723</v>
+      </c>
+      <c r="E23">
+        <v>-0.27482643944827023</v>
+      </c>
+      <c r="F23">
+        <v>-5.413853196699122</v>
+      </c>
+      <c r="G23">
+        <v>4.217558248462527</v>
+      </c>
+      <c r="H23">
+        <v>5.085773255450221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>6.950265538546557</v>
+      </c>
+      <c r="B24">
+        <v>7.285642405469473</v>
+      </c>
+      <c r="C24">
+        <v>2.7845305979776596</v>
+      </c>
+      <c r="D24">
+        <v>0.3847081344610082</v>
+      </c>
+      <c r="E24">
+        <v>-1.8380202302366004</v>
+      </c>
+      <c r="F24">
+        <v>0.08590221375895535</v>
+      </c>
+      <c r="G24">
+        <v>3.4649927321295952</v>
+      </c>
+      <c r="H24">
+        <v>-8.538455172859688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>-3.03278751618637</v>
+      </c>
+      <c r="B25">
+        <v>3.870234625908276</v>
+      </c>
+      <c r="C25">
+        <v>5.459237300466638</v>
+      </c>
+      <c r="D25">
+        <v>0.7257597072401448</v>
+      </c>
+      <c r="E25">
+        <v>-3.9382436548137085</v>
+      </c>
+      <c r="F25">
+        <v>1.9239541875648882</v>
+      </c>
+      <c r="G25">
+        <v>3.765865759205551</v>
+      </c>
+      <c r="H25">
+        <v>-2.5380726547963963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>3.232972810772397</v>
+      </c>
+      <c r="B26">
+        <v>7.603058980165004</v>
+      </c>
+      <c r="C26">
+        <v>-2.484498175410762</v>
+      </c>
+      <c r="D26">
+        <v>2.585751944368161</v>
+      </c>
+      <c r="E26">
+        <v>-3.995174608696084</v>
+      </c>
+      <c r="F26">
+        <v>-6.619683265118377</v>
+      </c>
+      <c r="G26">
+        <v>0.6402446563094983</v>
+      </c>
+      <c r="H26">
+        <v>-5.079052225631548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>6.032782063881769</v>
+      </c>
+      <c r="B27">
+        <v>3.4774759234182757</v>
+      </c>
+      <c r="C27">
+        <v>-0.7024175366193559</v>
+      </c>
+      <c r="D27">
+        <v>0.9237904823377115</v>
+      </c>
+      <c r="E27">
+        <v>1.5303268403039239</v>
+      </c>
+      <c r="F27">
+        <v>-5.497313754845082</v>
+      </c>
+      <c r="G27">
+        <v>5.646524038743873</v>
+      </c>
+      <c r="H27">
+        <v>-4.939776619870644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1.1958678224680896</v>
+      </c>
+      <c r="B28">
+        <v>2.380139344122735</v>
+      </c>
+      <c r="C28">
+        <v>-1.5191779237797327</v>
+      </c>
+      <c r="D28">
+        <v>3.66773809681394</v>
+      </c>
+      <c r="E28">
+        <v>-5.288204968666788</v>
+      </c>
+      <c r="F28">
+        <v>-3.5407760862643327</v>
+      </c>
+      <c r="G28">
+        <v>6.6953064024439914</v>
+      </c>
+      <c r="H28">
+        <v>-2.653192849630961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>-1.6982923355809776</v>
+      </c>
+      <c r="B29">
+        <v>0.48581900374153597</v>
+      </c>
+      <c r="C29">
+        <v>-0.13283733805706424</v>
+      </c>
+      <c r="D29">
+        <v>4.380130880291196</v>
+      </c>
+      <c r="E29">
+        <v>-1.6545662001630672</v>
+      </c>
+      <c r="F29">
+        <v>-3.3598600623893575</v>
+      </c>
+      <c r="G29">
+        <v>0.45863377437991026</v>
+      </c>
+      <c r="H29">
+        <v>-1.5823760108440896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>-0.21315027463093505</v>
+      </c>
+      <c r="B30">
+        <v>1.9679301845279669</v>
+      </c>
+      <c r="C30">
+        <v>1.2152402183167215</v>
+      </c>
+      <c r="D30">
+        <v>-2.9508216783122903</v>
+      </c>
+      <c r="E30">
+        <v>-5.336528620085027</v>
+      </c>
+      <c r="F30">
+        <v>2.5816720450039474</v>
+      </c>
+      <c r="G30">
+        <v>3.01940441608265</v>
+      </c>
+      <c r="H30">
+        <v>-1.6022935671183154</v>
       </c>
     </row>
   </sheetData>
